--- a/A/分类.xlsx
+++ b/A/分类.xlsx
@@ -10,18 +10,14 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
-  <si>
-    <t>衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>大衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梭织裤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>针织裙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,114 +83,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T恤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棉褛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针织裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梭织裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛仔裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夹克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针织裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽绒服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Casual pants</t>
-  </si>
-  <si>
-    <t>Down jacket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fleece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jacket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cotton-padded clothes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jeans</t>
-  </si>
-  <si>
-    <t>shirt</t>
-  </si>
-  <si>
-    <t>sweater</t>
-  </si>
-  <si>
-    <t>overcoat</t>
-  </si>
-  <si>
-    <t>M-dress</t>
-  </si>
-  <si>
-    <t>T-shirt</t>
-  </si>
-  <si>
-    <t>Knit pants</t>
-  </si>
-  <si>
-    <t>cardigan</t>
-  </si>
-  <si>
-    <t>Knit dress</t>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Down jacket.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casual pants.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardigan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton-padded clothes.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleece.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jacket.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knit pants.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeans.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knit dress.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-Casual pants.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-dress.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-fleece.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-jeans.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-shirt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-sweater.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-T-shirt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shirt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcoat.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweater.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-shirt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -552,293 +522,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B23"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/A/分类.xlsx
+++ b/A/分类.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>大衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Down jacket.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Casual pants.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cardigan.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,46 +111,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Knit pants.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jeans.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Knit dress.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-Casual pants.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-dress.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-fleece.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-jeans.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-shirt.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-sweater.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-T-shirt.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shirt.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,7 +127,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T-shirt.jpg</t>
+    <t>t-shirt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual-pants.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knit-pants.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down-jacket.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-dress.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knit-dress.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-t-shirt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-sweater.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardigan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-shirt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton-padded-clothes.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-Casual-pants.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-jeans.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-fleece.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +533,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -579,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -591,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -603,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -615,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -627,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -639,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -651,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -663,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -675,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -687,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -699,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -711,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -722,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -733,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -744,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -755,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -766,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -777,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -788,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -799,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -810,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -821,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -832,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -843,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -854,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/A/分类.xlsx
+++ b/A/分类.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>大衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cotton-padded clothes.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fleece.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,15 +167,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m-Casual-pants.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m-jeans.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m-fleece.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-casual-pants.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +529,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -587,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -611,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -623,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -635,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -647,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -659,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -671,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -683,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -695,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -707,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -719,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -730,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -741,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -752,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -763,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -774,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -796,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -807,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -818,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -829,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -840,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -851,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -862,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
